--- a/Applications Reports Details-IR-New-Summer 2025 as of May 01, 2025 (Fake Data).xlsx
+++ b/Applications Reports Details-IR-New-Summer 2025 as of May 01, 2025 (Fake Data).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keyanomailca-my.sharepoint.com/personal/bill_guo_keyano_ca/Documents/Documents/KPI-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{7B03FAFC-9144-419B-8640-E5C0BB351FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D2D7D9-E7DA-4BA4-AB21-66D407252EAF}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{7B03FAFC-9144-419B-8640-E5C0BB351FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91186F7-E15A-4CC0-A0EB-A7CEB9381164}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean data" sheetId="2" r:id="rId1"/>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4B3DF3-B9BB-4F1A-B196-548C7D03EE09}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1573,9 @@
       <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>879879</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
@@ -4574,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
@@ -6375,6 +6377,194 @@
     <row r="60" spans="1:31" ht="99.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="H10:J10"/>
@@ -6391,194 +6581,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="R57:S57"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.24781811023622" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6590,15 +6592,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D5C3A3196D4D4943A1067C8E97FB29BB" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="083260729529432f5d80e7c411452d31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e80f031-8b65-42a5-8493-43319737a55e" xmlns:ns3="d6c1a2fc-ca36-4c01-bf5c-04b7c5ffd235" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba048b5abdd9e0f83ffd9eb3f23c7b37" ns2:_="" ns3:_="">
     <xsd:import namespace="5e80f031-8b65-42a5-8493-43319737a55e"/>
@@ -6827,6 +6820,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6839,14 +6841,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE78B9F-F800-44D9-B017-C7D116028425}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533ACC55-B9DD-4B1B-B2C8-62076A16D5E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6861,6 +6855,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE78B9F-F800-44D9-B017-C7D116028425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
